--- a/PrediccionesPedidos.xlsx
+++ b/PrediccionesPedidos.xlsx
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="5">
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="6">
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="7">
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="8">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="9">
@@ -597,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="11">
@@ -631,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="13">
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="15">
@@ -699,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="16">
@@ -716,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="17">
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="18">
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="19">
@@ -767,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="20">
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="21">
@@ -801,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="22">
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="23">
@@ -835,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="24">
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="25">
@@ -869,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="26">
@@ -886,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="28">
@@ -920,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="29">
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="30">
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="31">
@@ -971,7 +971,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="32">
@@ -988,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="33">
@@ -1005,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="34">
@@ -1022,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="35">
@@ -1039,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="36">
@@ -1056,7 +1056,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="37">
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="38">
@@ -1090,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="39">
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="40">
@@ -1124,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="41">
@@ -1141,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="42">
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="43">
@@ -1175,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="44">
@@ -1192,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="45">
@@ -1209,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="46">
@@ -1226,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="47">
@@ -1243,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="48">
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="49">
@@ -1277,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="50">
@@ -1294,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="51">
@@ -1311,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="52">
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="53">
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="54">
@@ -1362,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="55">
@@ -1379,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="56">
@@ -1396,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="57">
@@ -1413,7 +1413,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="58">
@@ -1430,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="59">
@@ -1447,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="60">
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="61">
@@ -1481,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="62">
@@ -1498,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="63">
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="64">
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="65">
@@ -1549,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="66">
@@ -1566,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="67">
@@ -1583,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="68">
@@ -1600,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="69">
@@ -1617,7 +1617,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="70">
@@ -1634,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="71">
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="72">
@@ -1668,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="73">
@@ -1685,7 +1685,7 @@
         <v>11</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="74">
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="75">
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="76">
@@ -1736,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="77">
@@ -1753,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="78">
@@ -1770,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="79">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="80">
@@ -1804,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="81">
@@ -1821,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="82">
@@ -1838,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="83">
@@ -1855,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="84">
@@ -1872,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="85">
@@ -1889,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="86">
@@ -1906,7 +1906,7 @@
         <v>13</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="87">
@@ -1923,7 +1923,7 @@
         <v>16</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="88">
@@ -1940,7 +1940,7 @@
         <v>15</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="89">
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="90">
@@ -1974,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="91">
@@ -1991,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="92">
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="93">
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="94">
@@ -2042,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="95">
@@ -2059,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="96">
@@ -2076,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="97">
@@ -2093,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="98">
@@ -2110,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="99">
@@ -2127,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="100">
@@ -2144,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="101">
@@ -2161,7 +2161,7 @@
         <v>17</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="102">
@@ -2178,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="103">
@@ -2195,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="104">
@@ -2212,7 +2212,7 @@
         <v>13</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="105">
@@ -2229,7 +2229,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="106">
@@ -2246,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="107">
@@ -2263,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="108">
@@ -2280,7 +2280,7 @@
         <v>10</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="109">
@@ -2297,7 +2297,7 @@
         <v>13</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="110">
@@ -2314,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="111">
@@ -2331,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="112">
@@ -2348,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="113">
@@ -2365,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="114">
@@ -2382,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="115">
@@ -2399,7 +2399,7 @@
         <v>21</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="116">
@@ -2416,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="117">
@@ -2433,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="118">
@@ -2450,7 +2450,7 @@
         <v>11</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="119">
@@ -2467,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="120">
@@ -2484,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="121">
@@ -2501,7 +2501,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="122">
@@ -2518,7 +2518,7 @@
         <v>14</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="123">
@@ -2535,7 +2535,7 @@
         <v>16</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="124">
@@ -2552,7 +2552,7 @@
         <v>14</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="125">
@@ -2569,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="126">
@@ -2586,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="127">
@@ -2603,7 +2603,7 @@
         <v>13</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="128">
@@ -2620,7 +2620,7 @@
         <v>10</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="129">
@@ -2637,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="130">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="131">
@@ -2671,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="132">
@@ -2688,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="133">
@@ -2705,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="134">
@@ -2722,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="135">
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="136">
@@ -2756,7 +2756,7 @@
         <v>18</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="137">
@@ -2773,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="138">
@@ -2790,7 +2790,7 @@
         <v>15</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="139">
@@ -2807,7 +2807,7 @@
         <v>16</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="140">
@@ -2824,7 +2824,7 @@
         <v>10</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="141">
@@ -2841,7 +2841,7 @@
         <v>9</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="142">
@@ -2858,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="143">
@@ -2875,7 +2875,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="144">
@@ -2892,7 +2892,7 @@
         <v>10</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="145">
@@ -2909,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="146">
@@ -2926,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="147">
@@ -2943,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="148">
@@ -2960,7 +2960,7 @@
         <v>17</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="149">
@@ -2977,7 +2977,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="150">
@@ -2994,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="151">
@@ -3011,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="152">
@@ -3028,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="153">
@@ -3045,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="154">
@@ -3062,7 +3062,7 @@
         <v>9</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="155">
@@ -3079,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="156">
@@ -3096,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="157">
@@ -3113,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="158">
@@ -3130,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="159">
@@ -3147,7 +3147,7 @@
         <v>8</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="160">
@@ -3164,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="161">
@@ -3181,7 +3181,7 @@
         <v>8</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="162">
@@ -3198,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="163">
@@ -3215,7 +3215,7 @@
         <v>14</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="164">
@@ -3232,7 +3232,7 @@
         <v>12</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="165">
@@ -3249,7 +3249,7 @@
         <v>14</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="166">
@@ -3266,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="167">
@@ -3283,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="168">
@@ -3300,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="169">
@@ -3317,7 +3317,7 @@
         <v>11</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="170">
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="171">
@@ -3351,7 +3351,7 @@
         <v>11</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="172">
@@ -3368,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="173">
@@ -3385,7 +3385,7 @@
         <v>13</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="174">
@@ -3402,7 +3402,7 @@
         <v>11</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="175">
@@ -3419,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="176">
@@ -3436,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="177">
@@ -3453,7 +3453,7 @@
         <v>15</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="178">
@@ -3470,7 +3470,7 @@
         <v>14</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="179">
@@ -3487,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="180">
@@ -3504,7 +3504,7 @@
         <v>13</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="181">
@@ -3521,7 +3521,7 @@
         <v>11</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="182">
@@ -3538,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="183">
@@ -3555,7 +3555,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="184">
@@ -3572,7 +3572,7 @@
         <v>10</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="185">
@@ -3589,7 +3589,7 @@
         <v>15</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="186">
@@ -3606,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="187">
@@ -3623,7 +3623,7 @@
         <v>9</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="188">
@@ -3640,7 +3640,7 @@
         <v>12</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="189">
@@ -3657,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="190">
@@ -3674,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="191">
@@ -3691,7 +3691,7 @@
         <v>13</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="192">
@@ -3708,7 +3708,7 @@
         <v>15</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="193">
@@ -3725,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="194">
@@ -3742,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="195">
@@ -3759,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="196">
@@ -3776,7 +3776,7 @@
         <v>9</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="197">
@@ -3793,7 +3793,7 @@
         <v>9</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="198">
@@ -3810,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="199">
@@ -3827,7 +3827,7 @@
         <v>8</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="200">
@@ -3844,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="201">
@@ -3861,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="202">
@@ -3878,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="203">
@@ -3895,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="204">
@@ -3912,7 +3912,7 @@
         <v>10</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="205">
@@ -3929,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="206">
@@ -3946,7 +3946,7 @@
         <v>8</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="207">
@@ -3963,7 +3963,7 @@
         <v>6</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="208">
@@ -3980,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="209">
@@ -3997,7 +3997,7 @@
         <v>11</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="210">
@@ -4014,7 +4014,7 @@
         <v>6</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="211">
@@ -4031,7 +4031,7 @@
         <v>7</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="212">
@@ -4048,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="213">
@@ -4065,7 +4065,7 @@
         <v>8</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="214">
@@ -4082,7 +4082,7 @@
         <v>8</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="215">
@@ -4099,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="216">
@@ -4116,7 +4116,7 @@
         <v>12</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="217">
@@ -4133,7 +4133,7 @@
         <v>17</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="218">
@@ -4150,7 +4150,7 @@
         <v>11</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="219">
@@ -4167,7 +4167,7 @@
         <v>11</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="220">
@@ -4184,7 +4184,7 @@
         <v>13</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="221">
@@ -4201,7 +4201,7 @@
         <v>9</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="222">
@@ -4218,7 +4218,7 @@
         <v>11</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="223">
@@ -4235,7 +4235,7 @@
         <v>11</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="224">
@@ -4252,7 +4252,7 @@
         <v>13</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="225">
@@ -4269,7 +4269,7 @@
         <v>11</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="226">
@@ -4286,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="227">
@@ -4303,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="228">
@@ -4320,7 +4320,7 @@
         <v>15</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="229">
@@ -4337,7 +4337,7 @@
         <v>11</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="230">
@@ -4354,7 +4354,7 @@
         <v>7</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="231">
@@ -4371,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="232">
@@ -4388,7 +4388,7 @@
         <v>9</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="233">
@@ -4405,7 +4405,7 @@
         <v>14</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="234">
@@ -4422,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="235">
@@ -4439,7 +4439,7 @@
         <v>10</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="236">
@@ -4456,7 +4456,7 @@
         <v>11</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="237">
@@ -4473,7 +4473,7 @@
         <v>10</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="238">
@@ -4490,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="E238" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="239">
@@ -4507,7 +4507,7 @@
         <v>9</v>
       </c>
       <c r="E239" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="240">
@@ -4524,7 +4524,7 @@
         <v>13</v>
       </c>
       <c r="E240" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="241">
@@ -4541,7 +4541,7 @@
         <v>12</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="242">
@@ -4558,7 +4558,7 @@
         <v>14</v>
       </c>
       <c r="E242" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="243">
@@ -4575,7 +4575,7 @@
         <v>9</v>
       </c>
       <c r="E243" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="244">
@@ -4592,7 +4592,7 @@
         <v>14</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="245">
@@ -4609,7 +4609,7 @@
         <v>7</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="246">
@@ -4626,7 +4626,7 @@
         <v>7</v>
       </c>
       <c r="E246" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="247">
@@ -4643,7 +4643,7 @@
         <v>8</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="248">
@@ -4660,7 +4660,7 @@
         <v>14</v>
       </c>
       <c r="E248" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="249">
@@ -4677,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="E249" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="250">
@@ -4694,7 +4694,7 @@
         <v>22</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="251">
@@ -4711,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="E251" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="252">
@@ -4728,7 +4728,7 @@
         <v>10</v>
       </c>
       <c r="E252" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="253">
@@ -4745,7 +4745,7 @@
         <v>13</v>
       </c>
       <c r="E253" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="254">
@@ -4762,7 +4762,7 @@
         <v>10</v>
       </c>
       <c r="E254" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="255">
@@ -4779,7 +4779,7 @@
         <v>8</v>
       </c>
       <c r="E255" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="256">
@@ -4796,7 +4796,7 @@
         <v>8</v>
       </c>
       <c r="E256" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="257">
@@ -4813,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="258">
@@ -4830,7 +4830,7 @@
         <v>10</v>
       </c>
       <c r="E258" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="259">
@@ -4847,7 +4847,7 @@
         <v>10</v>
       </c>
       <c r="E259" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="260">
@@ -4864,7 +4864,7 @@
         <v>13</v>
       </c>
       <c r="E260" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="261">
@@ -4881,7 +4881,7 @@
         <v>12</v>
       </c>
       <c r="E261" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="262">
@@ -4898,7 +4898,7 @@
         <v>11</v>
       </c>
       <c r="E262" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="263">
@@ -4915,7 +4915,7 @@
         <v>20</v>
       </c>
       <c r="E263" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="264">
@@ -4932,7 +4932,7 @@
         <v>10</v>
       </c>
       <c r="E264" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="265">
@@ -4949,7 +4949,7 @@
         <v>10</v>
       </c>
       <c r="E265" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="266">
@@ -4966,7 +4966,7 @@
         <v>11</v>
       </c>
       <c r="E266" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="267">
@@ -4983,7 +4983,7 @@
         <v>11</v>
       </c>
       <c r="E267" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="268">
@@ -5000,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="E268" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="269">
@@ -5017,7 +5017,7 @@
         <v>7</v>
       </c>
       <c r="E269" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="270">
@@ -5034,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="E270" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="271">
@@ -5051,7 +5051,7 @@
         <v>7</v>
       </c>
       <c r="E271" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="272">
@@ -5068,7 +5068,7 @@
         <v>12</v>
       </c>
       <c r="E272" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="273">
@@ -5085,7 +5085,7 @@
         <v>11</v>
       </c>
       <c r="E273" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="274">
@@ -5102,7 +5102,7 @@
         <v>9</v>
       </c>
       <c r="E274" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="275">
@@ -5119,7 +5119,7 @@
         <v>16</v>
       </c>
       <c r="E275" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="276">
@@ -5136,7 +5136,7 @@
         <v>11</v>
       </c>
       <c r="E276" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="277">
@@ -5153,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="E277" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="278">
@@ -5170,7 +5170,7 @@
         <v>6</v>
       </c>
       <c r="E278" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="279">
@@ -5187,7 +5187,7 @@
         <v>8</v>
       </c>
       <c r="E279" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="280">
@@ -5204,7 +5204,7 @@
         <v>7</v>
       </c>
       <c r="E280" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="281">
@@ -5221,7 +5221,7 @@
         <v>8</v>
       </c>
       <c r="E281" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="282">
@@ -5238,7 +5238,7 @@
         <v>11</v>
       </c>
       <c r="E282" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="283">
@@ -5255,7 +5255,7 @@
         <v>13</v>
       </c>
       <c r="E283" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="284">
@@ -5272,7 +5272,7 @@
         <v>17</v>
       </c>
       <c r="E284" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="285">
@@ -5289,7 +5289,7 @@
         <v>14</v>
       </c>
       <c r="E285" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="286">
@@ -5306,7 +5306,7 @@
         <v>9</v>
       </c>
       <c r="E286" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="287">
@@ -5323,7 +5323,7 @@
         <v>12</v>
       </c>
       <c r="E287" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="288">
@@ -5340,7 +5340,7 @@
         <v>8</v>
       </c>
       <c r="E288" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="289">
@@ -5357,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="E289" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="290">
@@ -5374,7 +5374,7 @@
         <v>16</v>
       </c>
       <c r="E290" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="291">
@@ -5391,7 +5391,7 @@
         <v>17</v>
       </c>
       <c r="E291" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="292">
@@ -5408,7 +5408,7 @@
         <v>16</v>
       </c>
       <c r="E292" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="293">
@@ -5425,7 +5425,7 @@
         <v>13</v>
       </c>
       <c r="E293" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="294">
@@ -5442,7 +5442,7 @@
         <v>8</v>
       </c>
       <c r="E294" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="295">
@@ -5459,7 +5459,7 @@
         <v>13</v>
       </c>
       <c r="E295" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="296">
@@ -5476,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="E296" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="297">
@@ -5493,7 +5493,7 @@
         <v>9</v>
       </c>
       <c r="E297" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="298">
@@ -5510,7 +5510,7 @@
         <v>10</v>
       </c>
       <c r="E298" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="299">
@@ -5527,7 +5527,7 @@
         <v>8</v>
       </c>
       <c r="E299" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="300">
@@ -5544,7 +5544,7 @@
         <v>10</v>
       </c>
       <c r="E300" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="301">
@@ -5561,7 +5561,7 @@
         <v>13</v>
       </c>
       <c r="E301" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="302">
@@ -5578,7 +5578,7 @@
         <v>12</v>
       </c>
       <c r="E302" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="303">
@@ -5595,7 +5595,7 @@
         <v>10</v>
       </c>
       <c r="E303" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="304">
@@ -5612,7 +5612,7 @@
         <v>11</v>
       </c>
       <c r="E304" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="305">
@@ -5629,7 +5629,7 @@
         <v>12</v>
       </c>
       <c r="E305" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="306">
@@ -5646,7 +5646,7 @@
         <v>17</v>
       </c>
       <c r="E306" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="307">
@@ -5663,7 +5663,7 @@
         <v>14</v>
       </c>
       <c r="E307" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="308">
@@ -5680,7 +5680,7 @@
         <v>12</v>
       </c>
       <c r="E308" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="309">
@@ -5697,7 +5697,7 @@
         <v>8</v>
       </c>
       <c r="E309" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="310">
@@ -5714,7 +5714,7 @@
         <v>12</v>
       </c>
       <c r="E310" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="311">
@@ -5731,7 +5731,7 @@
         <v>6</v>
       </c>
       <c r="E311" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="312">
@@ -5748,7 +5748,7 @@
         <v>14</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="313">
@@ -5765,7 +5765,7 @@
         <v>12</v>
       </c>
       <c r="E313" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="314">
@@ -5782,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="E314" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="315">
@@ -5799,7 +5799,7 @@
         <v>9</v>
       </c>
       <c r="E315" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="316">
@@ -5816,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="E316" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="317">
@@ -5833,7 +5833,7 @@
         <v>9</v>
       </c>
       <c r="E317" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="318">
@@ -5850,7 +5850,7 @@
         <v>9</v>
       </c>
       <c r="E318" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="319">
@@ -5867,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="320">
@@ -5884,7 +5884,7 @@
         <v>15</v>
       </c>
       <c r="E320" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="321">
@@ -5901,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="E321" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="322">
@@ -5918,7 +5918,7 @@
         <v>11</v>
       </c>
       <c r="E322" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="323">
@@ -5935,7 +5935,7 @@
         <v>11</v>
       </c>
       <c r="E323" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="324">
@@ -5952,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="E324" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="325">
@@ -5969,7 +5969,7 @@
         <v>13</v>
       </c>
       <c r="E325" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="326">
@@ -5986,7 +5986,7 @@
         <v>9</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="327">
@@ -6003,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="E327" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="328">
@@ -6020,7 +6020,7 @@
         <v>9</v>
       </c>
       <c r="E328" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="329">
@@ -6037,7 +6037,7 @@
         <v>9</v>
       </c>
       <c r="E329" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="330">
@@ -6054,7 +6054,7 @@
         <v>10</v>
       </c>
       <c r="E330" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="331">
@@ -6071,7 +6071,7 @@
         <v>10</v>
       </c>
       <c r="E331" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="332">
@@ -6088,7 +6088,7 @@
         <v>10</v>
       </c>
       <c r="E332" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="333">
@@ -6105,7 +6105,7 @@
         <v>7</v>
       </c>
       <c r="E333" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="334">
@@ -6122,7 +6122,7 @@
         <v>13</v>
       </c>
       <c r="E334" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="335">
@@ -6139,7 +6139,7 @@
         <v>8</v>
       </c>
       <c r="E335" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="336">
@@ -6156,7 +6156,7 @@
         <v>10</v>
       </c>
       <c r="E336" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="337">
@@ -6173,7 +6173,7 @@
         <v>8</v>
       </c>
       <c r="E337" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="338">
@@ -6190,7 +6190,7 @@
         <v>12</v>
       </c>
       <c r="E338" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="339">
@@ -6207,7 +6207,7 @@
         <v>7</v>
       </c>
       <c r="E339" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="340">
@@ -6224,7 +6224,7 @@
         <v>10</v>
       </c>
       <c r="E340" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="341">
@@ -6241,7 +6241,7 @@
         <v>10</v>
       </c>
       <c r="E341" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="342">
@@ -6258,7 +6258,7 @@
         <v>11</v>
       </c>
       <c r="E342" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="343">
@@ -6275,7 +6275,7 @@
         <v>10</v>
       </c>
       <c r="E343" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="344">
@@ -6292,7 +6292,7 @@
         <v>11</v>
       </c>
       <c r="E344" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="345">
@@ -6309,7 +6309,7 @@
         <v>11</v>
       </c>
       <c r="E345" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="346">
@@ -6326,7 +6326,7 @@
         <v>15</v>
       </c>
       <c r="E346" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="347">
@@ -6343,7 +6343,7 @@
         <v>16</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="348">
@@ -6360,7 +6360,7 @@
         <v>15</v>
       </c>
       <c r="E348" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="349">
@@ -6377,7 +6377,7 @@
         <v>15</v>
       </c>
       <c r="E349" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="350">
@@ -6394,7 +6394,7 @@
         <v>14</v>
       </c>
       <c r="E350" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="351">
@@ -6411,7 +6411,7 @@
         <v>8</v>
       </c>
       <c r="E351" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="352">
@@ -6428,7 +6428,7 @@
         <v>9</v>
       </c>
       <c r="E352" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="353">
@@ -6445,7 +6445,7 @@
         <v>9</v>
       </c>
       <c r="E353" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="354">
@@ -6462,7 +6462,7 @@
         <v>11</v>
       </c>
       <c r="E354" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="355">
@@ -6479,7 +6479,7 @@
         <v>16</v>
       </c>
       <c r="E355" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="356">
@@ -6496,7 +6496,7 @@
         <v>8</v>
       </c>
       <c r="E356" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="357">
@@ -6513,7 +6513,7 @@
         <v>10</v>
       </c>
       <c r="E357" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="358">
@@ -6530,7 +6530,7 @@
         <v>13</v>
       </c>
       <c r="E358" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="359">
@@ -6547,7 +6547,7 @@
         <v>14</v>
       </c>
       <c r="E359" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="360">
@@ -6564,7 +6564,7 @@
         <v>9</v>
       </c>
       <c r="E360" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="361">
@@ -6581,7 +6581,7 @@
         <v>12</v>
       </c>
       <c r="E361" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="362">
@@ -6598,7 +6598,7 @@
         <v>11</v>
       </c>
       <c r="E362" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="363">
@@ -6615,7 +6615,7 @@
         <v>10</v>
       </c>
       <c r="E363" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="364">
@@ -6632,7 +6632,7 @@
         <v>14</v>
       </c>
       <c r="E364" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="365">
@@ -6649,7 +6649,7 @@
         <v>10</v>
       </c>
       <c r="E365" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="366">
@@ -6666,7 +6666,7 @@
         <v>12</v>
       </c>
       <c r="E366" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="367">
@@ -6683,7 +6683,7 @@
         <v>7</v>
       </c>
       <c r="E367" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="368">
@@ -6700,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="E368" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="369">
@@ -6717,7 +6717,7 @@
         <v>15</v>
       </c>
       <c r="E369" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="370">
@@ -6734,7 +6734,7 @@
         <v>13</v>
       </c>
       <c r="E370" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="371">
@@ -6751,7 +6751,7 @@
         <v>13</v>
       </c>
       <c r="E371" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="372">
@@ -6768,7 +6768,7 @@
         <v>12</v>
       </c>
       <c r="E372" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="373">
@@ -6785,7 +6785,7 @@
         <v>7</v>
       </c>
       <c r="E373" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="374">
@@ -6802,7 +6802,7 @@
         <v>13</v>
       </c>
       <c r="E374" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="375">
@@ -6819,7 +6819,7 @@
         <v>12</v>
       </c>
       <c r="E375" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="376">
@@ -6836,7 +6836,7 @@
         <v>8</v>
       </c>
       <c r="E376" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="377">
@@ -6853,7 +6853,7 @@
         <v>10</v>
       </c>
       <c r="E377" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="378">
@@ -6870,7 +6870,7 @@
         <v>6</v>
       </c>
       <c r="E378" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="379">
@@ -6887,7 +6887,7 @@
         <v>17</v>
       </c>
       <c r="E379" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="380">
@@ -6904,7 +6904,7 @@
         <v>14</v>
       </c>
       <c r="E380" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="381">
@@ -6921,7 +6921,7 @@
         <v>8</v>
       </c>
       <c r="E381" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="382">
@@ -6938,7 +6938,7 @@
         <v>10</v>
       </c>
       <c r="E382" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="383">
@@ -6955,7 +6955,7 @@
         <v>8</v>
       </c>
       <c r="E383" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="384">
@@ -6972,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="E384" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="385">
@@ -6989,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="E385" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="386">
@@ -7006,7 +7006,7 @@
         <v>7</v>
       </c>
       <c r="E386" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="387">
@@ -7023,7 +7023,7 @@
         <v>10</v>
       </c>
       <c r="E387" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="388">
@@ -7040,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="E388" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="389">
@@ -7057,7 +7057,7 @@
         <v>16</v>
       </c>
       <c r="E389" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="390">
@@ -7074,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="E390" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="391">
@@ -7091,7 +7091,7 @@
         <v>10</v>
       </c>
       <c r="E391" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="392">
@@ -7108,7 +7108,7 @@
         <v>9</v>
       </c>
       <c r="E392" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="393">
@@ -7125,7 +7125,7 @@
         <v>9</v>
       </c>
       <c r="E393" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="394">
@@ -7142,7 +7142,7 @@
         <v>8</v>
       </c>
       <c r="E394" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="395">
@@ -7159,7 +7159,7 @@
         <v>7</v>
       </c>
       <c r="E395" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="396">
@@ -7176,7 +7176,7 @@
         <v>14</v>
       </c>
       <c r="E396" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="397">
@@ -7193,7 +7193,7 @@
         <v>16</v>
       </c>
       <c r="E397" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="398">
@@ -7210,7 +7210,7 @@
         <v>15</v>
       </c>
       <c r="E398" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="399">
@@ -7227,7 +7227,7 @@
         <v>13</v>
       </c>
       <c r="E399" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="400">
@@ -7244,7 +7244,7 @@
         <v>11</v>
       </c>
       <c r="E400" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="401">
@@ -7261,7 +7261,7 @@
         <v>9</v>
       </c>
       <c r="E401" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="402">
@@ -7278,7 +7278,7 @@
         <v>16</v>
       </c>
       <c r="E402" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="403">
@@ -7295,7 +7295,7 @@
         <v>13</v>
       </c>
       <c r="E403" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="404">
@@ -7312,7 +7312,7 @@
         <v>8</v>
       </c>
       <c r="E404" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="405">
@@ -7329,7 +7329,7 @@
         <v>9</v>
       </c>
       <c r="E405" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="406">
@@ -7346,7 +7346,7 @@
         <v>7</v>
       </c>
       <c r="E406" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="407">
@@ -7363,7 +7363,7 @@
         <v>13</v>
       </c>
       <c r="E407" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="408">
@@ -7380,7 +7380,7 @@
         <v>10</v>
       </c>
       <c r="E408" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="409">
@@ -7397,7 +7397,7 @@
         <v>12</v>
       </c>
       <c r="E409" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="410">
@@ -7414,7 +7414,7 @@
         <v>10</v>
       </c>
       <c r="E410" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="411">
@@ -7431,7 +7431,7 @@
         <v>14</v>
       </c>
       <c r="E411" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="412">
@@ -7448,7 +7448,7 @@
         <v>15</v>
       </c>
       <c r="E412" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="413">
@@ -7465,7 +7465,7 @@
         <v>12</v>
       </c>
       <c r="E413" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="414">
@@ -7482,7 +7482,7 @@
         <v>9</v>
       </c>
       <c r="E414" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="415">
@@ -7499,7 +7499,7 @@
         <v>12</v>
       </c>
       <c r="E415" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="416">
@@ -7516,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="E416" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="417">
@@ -7533,7 +7533,7 @@
         <v>8</v>
       </c>
       <c r="E417" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="418">
@@ -7550,7 +7550,7 @@
         <v>10</v>
       </c>
       <c r="E418" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="419">
@@ -7567,7 +7567,7 @@
         <v>12</v>
       </c>
       <c r="E419" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="420">
@@ -7584,7 +7584,7 @@
         <v>16</v>
       </c>
       <c r="E420" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="421">
@@ -7601,7 +7601,7 @@
         <v>14</v>
       </c>
       <c r="E421" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="422">
@@ -7618,7 +7618,7 @@
         <v>13</v>
       </c>
       <c r="E422" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="423">
@@ -7635,7 +7635,7 @@
         <v>11</v>
       </c>
       <c r="E423" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="424">
@@ -7652,7 +7652,7 @@
         <v>13</v>
       </c>
       <c r="E424" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="425">
@@ -7669,7 +7669,7 @@
         <v>11</v>
       </c>
       <c r="E425" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="426">
@@ -7686,7 +7686,7 @@
         <v>13</v>
       </c>
       <c r="E426" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="427">
@@ -7703,7 +7703,7 @@
         <v>15</v>
       </c>
       <c r="E427" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="428">
@@ -7720,7 +7720,7 @@
         <v>10</v>
       </c>
       <c r="E428" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="429">
@@ -7737,7 +7737,7 @@
         <v>11</v>
       </c>
       <c r="E429" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="430">
@@ -7754,7 +7754,7 @@
         <v>14</v>
       </c>
       <c r="E430" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="431">
@@ -7771,7 +7771,7 @@
         <v>10</v>
       </c>
       <c r="E431" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="432">
@@ -7788,7 +7788,7 @@
         <v>13</v>
       </c>
       <c r="E432" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="433">
@@ -7805,7 +7805,7 @@
         <v>9</v>
       </c>
       <c r="E433" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="434">
@@ -7822,7 +7822,7 @@
         <v>14</v>
       </c>
       <c r="E434" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="435">
@@ -7839,7 +7839,7 @@
         <v>9</v>
       </c>
       <c r="E435" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="436">
@@ -7856,7 +7856,7 @@
         <v>10</v>
       </c>
       <c r="E436" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="437">
@@ -7873,7 +7873,7 @@
         <v>6</v>
       </c>
       <c r="E437" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="438">
@@ -7890,7 +7890,7 @@
         <v>9</v>
       </c>
       <c r="E438" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="439">
@@ -7907,7 +7907,7 @@
         <v>13</v>
       </c>
       <c r="E439" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="440">
@@ -7924,7 +7924,7 @@
         <v>8</v>
       </c>
       <c r="E440" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="441">
@@ -7941,7 +7941,7 @@
         <v>8</v>
       </c>
       <c r="E441" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="442">
@@ -7958,7 +7958,7 @@
         <v>9</v>
       </c>
       <c r="E442" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="443">
@@ -7975,7 +7975,7 @@
         <v>9</v>
       </c>
       <c r="E443" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="444">
@@ -7992,7 +7992,7 @@
         <v>6</v>
       </c>
       <c r="E444" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="445">
@@ -8009,7 +8009,7 @@
         <v>8</v>
       </c>
       <c r="E445" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="446">
@@ -8026,7 +8026,7 @@
         <v>12</v>
       </c>
       <c r="E446" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="447">
@@ -8043,7 +8043,7 @@
         <v>12</v>
       </c>
       <c r="E447" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="448">
@@ -8060,7 +8060,7 @@
         <v>9</v>
       </c>
       <c r="E448" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="449">
@@ -8077,7 +8077,7 @@
         <v>14</v>
       </c>
       <c r="E449" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="450">
@@ -8094,7 +8094,7 @@
         <v>11</v>
       </c>
       <c r="E450" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="451">
@@ -8111,7 +8111,7 @@
         <v>10</v>
       </c>
       <c r="E451" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="452">
@@ -8128,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="E452" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="453">
@@ -8145,7 +8145,7 @@
         <v>12</v>
       </c>
       <c r="E453" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="454">
@@ -8162,7 +8162,7 @@
         <v>13</v>
       </c>
       <c r="E454" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="455">
@@ -8179,7 +8179,7 @@
         <v>16</v>
       </c>
       <c r="E455" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="456">
@@ -8196,7 +8196,7 @@
         <v>15</v>
       </c>
       <c r="E456" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="457">
@@ -8213,7 +8213,7 @@
         <v>15</v>
       </c>
       <c r="E457" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="458">
@@ -8230,7 +8230,7 @@
         <v>14</v>
       </c>
       <c r="E458" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="459">
@@ -8247,7 +8247,7 @@
         <v>19</v>
       </c>
       <c r="E459" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="460">
@@ -8264,7 +8264,7 @@
         <v>12</v>
       </c>
       <c r="E460" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="461">
@@ -8281,7 +8281,7 @@
         <v>12</v>
       </c>
       <c r="E461" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="462">
@@ -8298,7 +8298,7 @@
         <v>15</v>
       </c>
       <c r="E462" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="463">
@@ -8315,7 +8315,7 @@
         <v>9</v>
       </c>
       <c r="E463" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="464">
@@ -8332,7 +8332,7 @@
         <v>15</v>
       </c>
       <c r="E464" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="465">
@@ -8349,7 +8349,7 @@
         <v>11</v>
       </c>
       <c r="E465" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="466">
@@ -8366,7 +8366,7 @@
         <v>8</v>
       </c>
       <c r="E466" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="467">
@@ -8383,7 +8383,7 @@
         <v>8</v>
       </c>
       <c r="E467" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="468">
@@ -8400,7 +8400,7 @@
         <v>8</v>
       </c>
       <c r="E468" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="469">
@@ -8417,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="E469" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="470">
@@ -8434,7 +8434,7 @@
         <v>11</v>
       </c>
       <c r="E470" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="471">
@@ -8451,7 +8451,7 @@
         <v>14</v>
       </c>
       <c r="E471" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="472">
@@ -8468,7 +8468,7 @@
         <v>11</v>
       </c>
       <c r="E472" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="473">
@@ -8485,7 +8485,7 @@
         <v>16</v>
       </c>
       <c r="E473" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="474">
@@ -8502,7 +8502,7 @@
         <v>15</v>
       </c>
       <c r="E474" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="475">
@@ -8519,7 +8519,7 @@
         <v>12</v>
       </c>
       <c r="E475" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="476">
@@ -8536,7 +8536,7 @@
         <v>18</v>
       </c>
       <c r="E476" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="477">
@@ -8553,7 +8553,7 @@
         <v>10</v>
       </c>
       <c r="E477" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="478">
@@ -8570,7 +8570,7 @@
         <v>13</v>
       </c>
       <c r="E478" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="479">
@@ -8587,7 +8587,7 @@
         <v>8</v>
       </c>
       <c r="E479" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="480">
@@ -8604,7 +8604,7 @@
         <v>9</v>
       </c>
       <c r="E480" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="481">
@@ -8621,7 +8621,7 @@
         <v>6</v>
       </c>
       <c r="E481" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="482">
@@ -8638,7 +8638,7 @@
         <v>7</v>
       </c>
       <c r="E482" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="483">
@@ -8655,7 +8655,7 @@
         <v>6</v>
       </c>
       <c r="E483" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="484">
@@ -8672,7 +8672,7 @@
         <v>7</v>
       </c>
       <c r="E484" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="485">
@@ -8689,7 +8689,7 @@
         <v>6</v>
       </c>
       <c r="E485" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="486">
@@ -8706,7 +8706,7 @@
         <v>8</v>
       </c>
       <c r="E486" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="487">
@@ -8723,7 +8723,7 @@
         <v>12</v>
       </c>
       <c r="E487" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="488">
@@ -8740,7 +8740,7 @@
         <v>6</v>
       </c>
       <c r="E488" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="489">
@@ -8757,7 +8757,7 @@
         <v>12</v>
       </c>
       <c r="E489" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="490">
@@ -8774,7 +8774,7 @@
         <v>6</v>
       </c>
       <c r="E490" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="491">
@@ -8791,7 +8791,7 @@
         <v>6</v>
       </c>
       <c r="E491" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="492">
@@ -8808,7 +8808,7 @@
         <v>7</v>
       </c>
       <c r="E492" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="493">
@@ -8825,7 +8825,7 @@
         <v>9</v>
       </c>
       <c r="E493" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="494">
@@ -8842,7 +8842,7 @@
         <v>17</v>
       </c>
       <c r="E494" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="495">
@@ -8859,7 +8859,7 @@
         <v>14</v>
       </c>
       <c r="E495" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="496">
@@ -8876,7 +8876,7 @@
         <v>9</v>
       </c>
       <c r="E496" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="497">
@@ -8893,7 +8893,7 @@
         <v>17</v>
       </c>
       <c r="E497" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="498">
@@ -8910,7 +8910,7 @@
         <v>7</v>
       </c>
       <c r="E498" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="499">
@@ -8927,7 +8927,7 @@
         <v>11</v>
       </c>
       <c r="E499" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="500">
@@ -8944,7 +8944,7 @@
         <v>7</v>
       </c>
       <c r="E500" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="501">
@@ -8961,7 +8961,7 @@
         <v>14</v>
       </c>
       <c r="E501" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="502">
@@ -8978,7 +8978,7 @@
         <v>9</v>
       </c>
       <c r="E502" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="503">
@@ -8995,7 +8995,7 @@
         <v>14</v>
       </c>
       <c r="E503" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="504">
@@ -9012,7 +9012,7 @@
         <v>16</v>
       </c>
       <c r="E504" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="505">
@@ -9029,7 +9029,7 @@
         <v>11</v>
       </c>
       <c r="E505" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="506">
@@ -9046,7 +9046,7 @@
         <v>17</v>
       </c>
       <c r="E506" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="507">
@@ -9063,7 +9063,7 @@
         <v>13</v>
       </c>
       <c r="E507" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="508">
@@ -9080,7 +9080,7 @@
         <v>16</v>
       </c>
       <c r="E508" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="509">
@@ -9097,7 +9097,7 @@
         <v>18</v>
       </c>
       <c r="E509" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="510">
@@ -9114,7 +9114,7 @@
         <v>10</v>
       </c>
       <c r="E510" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="511">
@@ -9131,7 +9131,7 @@
         <v>16</v>
       </c>
       <c r="E511" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="512">
@@ -9148,7 +9148,7 @@
         <v>12</v>
       </c>
       <c r="E512" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="513">
@@ -9165,7 +9165,7 @@
         <v>13</v>
       </c>
       <c r="E513" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="514">
@@ -9182,7 +9182,7 @@
         <v>11</v>
       </c>
       <c r="E514" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="515">
@@ -9199,7 +9199,7 @@
         <v>9</v>
       </c>
       <c r="E515" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="516">
@@ -9216,7 +9216,7 @@
         <v>7</v>
       </c>
       <c r="E516" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="517">
@@ -9233,7 +9233,7 @@
         <v>7</v>
       </c>
       <c r="E517" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="518">
@@ -9250,7 +9250,7 @@
         <v>7</v>
       </c>
       <c r="E518" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="519">
@@ -9267,7 +9267,7 @@
         <v>13</v>
       </c>
       <c r="E519" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="520">
@@ -9284,7 +9284,7 @@
         <v>9</v>
       </c>
       <c r="E520" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="521">
@@ -9301,7 +9301,7 @@
         <v>15</v>
       </c>
       <c r="E521" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="522">
@@ -9318,7 +9318,7 @@
         <v>6</v>
       </c>
       <c r="E522" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="523">
@@ -9335,7 +9335,7 @@
         <v>10</v>
       </c>
       <c r="E523" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="524">
@@ -9352,7 +9352,7 @@
         <v>11</v>
       </c>
       <c r="E524" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="525">
@@ -9369,7 +9369,7 @@
         <v>10</v>
       </c>
       <c r="E525" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="526">
@@ -9386,7 +9386,7 @@
         <v>12</v>
       </c>
       <c r="E526" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="527">
@@ -9403,7 +9403,7 @@
         <v>12</v>
       </c>
       <c r="E527" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="528">
@@ -9420,7 +9420,7 @@
         <v>6</v>
       </c>
       <c r="E528" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="529">
@@ -9437,7 +9437,7 @@
         <v>12</v>
       </c>
       <c r="E529" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="530">
@@ -9454,7 +9454,7 @@
         <v>7</v>
       </c>
       <c r="E530" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="531">
@@ -9471,7 +9471,7 @@
         <v>15</v>
       </c>
       <c r="E531" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="532">
@@ -9488,7 +9488,7 @@
         <v>9</v>
       </c>
       <c r="E532" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="533">
@@ -9505,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="E533" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="534">
@@ -9522,7 +9522,7 @@
         <v>8</v>
       </c>
       <c r="E534" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="535">
@@ -9539,7 +9539,7 @@
         <v>15</v>
       </c>
       <c r="E535" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="536">
@@ -9556,7 +9556,7 @@
         <v>8</v>
       </c>
       <c r="E536" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="537">
@@ -9573,7 +9573,7 @@
         <v>11</v>
       </c>
       <c r="E537" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="538">
@@ -9590,7 +9590,7 @@
         <v>11</v>
       </c>
       <c r="E538" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="539">
@@ -9607,7 +9607,7 @@
         <v>15</v>
       </c>
       <c r="E539" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="540">
@@ -9624,7 +9624,7 @@
         <v>15</v>
       </c>
       <c r="E540" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="541">
@@ -9641,7 +9641,7 @@
         <v>13</v>
       </c>
       <c r="E541" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="542">
@@ -9658,7 +9658,7 @@
         <v>10</v>
       </c>
       <c r="E542" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="543">
@@ -9675,7 +9675,7 @@
         <v>13</v>
       </c>
       <c r="E543" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="544">
@@ -9692,7 +9692,7 @@
         <v>10</v>
       </c>
       <c r="E544" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="545">
@@ -9709,7 +9709,7 @@
         <v>6</v>
       </c>
       <c r="E545" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="546">
@@ -9726,7 +9726,7 @@
         <v>12</v>
       </c>
       <c r="E546" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="547">
@@ -9743,7 +9743,7 @@
         <v>8</v>
       </c>
       <c r="E547" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="548">
@@ -9760,7 +9760,7 @@
         <v>10</v>
       </c>
       <c r="E548" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="549">
@@ -9777,7 +9777,7 @@
         <v>15</v>
       </c>
       <c r="E549" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="550">
@@ -9794,7 +9794,7 @@
         <v>10</v>
       </c>
       <c r="E550" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="551">
@@ -9811,7 +9811,7 @@
         <v>9</v>
       </c>
       <c r="E551" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="552">
@@ -9828,7 +9828,7 @@
         <v>13</v>
       </c>
       <c r="E552" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="553">
@@ -9845,7 +9845,7 @@
         <v>12</v>
       </c>
       <c r="E553" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="554">
@@ -9862,7 +9862,7 @@
         <v>17</v>
       </c>
       <c r="E554" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="555">
@@ -9879,7 +9879,7 @@
         <v>13</v>
       </c>
       <c r="E555" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="556">
@@ -9896,7 +9896,7 @@
         <v>14</v>
       </c>
       <c r="E556" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="557">
@@ -9913,7 +9913,7 @@
         <v>10</v>
       </c>
       <c r="E557" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="558">
@@ -9930,7 +9930,7 @@
         <v>8</v>
       </c>
       <c r="E558" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="559">
@@ -9947,7 +9947,7 @@
         <v>12</v>
       </c>
       <c r="E559" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="560">
@@ -9964,7 +9964,7 @@
         <v>11</v>
       </c>
       <c r="E560" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="561">
@@ -9981,7 +9981,7 @@
         <v>14</v>
       </c>
       <c r="E561" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="562">
@@ -9998,7 +9998,7 @@
         <v>8</v>
       </c>
       <c r="E562" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="563">
@@ -10015,7 +10015,7 @@
         <v>13</v>
       </c>
       <c r="E563" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="564">
@@ -10032,7 +10032,7 @@
         <v>16</v>
       </c>
       <c r="E564" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="565">
@@ -10049,7 +10049,7 @@
         <v>14</v>
       </c>
       <c r="E565" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="566">
@@ -10066,7 +10066,7 @@
         <v>9</v>
       </c>
       <c r="E566" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="567">
@@ -10083,7 +10083,7 @@
         <v>10</v>
       </c>
       <c r="E567" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="568">
@@ -10100,7 +10100,7 @@
         <v>6</v>
       </c>
       <c r="E568" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="569">
@@ -10117,7 +10117,7 @@
         <v>18</v>
       </c>
       <c r="E569" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="570">
@@ -10134,7 +10134,7 @@
         <v>15</v>
       </c>
       <c r="E570" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="571">
@@ -10151,7 +10151,7 @@
         <v>14</v>
       </c>
       <c r="E571" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="572">
@@ -10168,7 +10168,7 @@
         <v>9</v>
       </c>
       <c r="E572" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="573">
@@ -10185,7 +10185,7 @@
         <v>7</v>
       </c>
       <c r="E573" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="574">
@@ -10202,7 +10202,7 @@
         <v>10</v>
       </c>
       <c r="E574" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="575">
@@ -10219,7 +10219,7 @@
         <v>10</v>
       </c>
       <c r="E575" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="576">
@@ -10236,7 +10236,7 @@
         <v>13</v>
       </c>
       <c r="E576" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="577">
@@ -10253,7 +10253,7 @@
         <v>8</v>
       </c>
       <c r="E577" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="578">
@@ -10270,7 +10270,7 @@
         <v>9</v>
       </c>
       <c r="E578" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="579">
@@ -10287,7 +10287,7 @@
         <v>12</v>
       </c>
       <c r="E579" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="580">
@@ -10304,7 +10304,7 @@
         <v>12</v>
       </c>
       <c r="E580" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="581">
@@ -10321,7 +10321,7 @@
         <v>14</v>
       </c>
       <c r="E581" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="582">
@@ -10338,7 +10338,7 @@
         <v>11</v>
       </c>
       <c r="E582" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="583">
@@ -10355,7 +10355,7 @@
         <v>12</v>
       </c>
       <c r="E583" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="584">
@@ -10372,7 +10372,7 @@
         <v>9</v>
       </c>
       <c r="E584" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="585">
@@ -10389,7 +10389,7 @@
         <v>10</v>
       </c>
       <c r="E585" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="586">
@@ -10406,7 +10406,7 @@
         <v>7</v>
       </c>
       <c r="E586" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="587">
@@ -10423,7 +10423,7 @@
         <v>11</v>
       </c>
       <c r="E587" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="588">
@@ -10440,7 +10440,7 @@
         <v>20</v>
       </c>
       <c r="E588" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="589">
@@ -10457,7 +10457,7 @@
         <v>18</v>
       </c>
       <c r="E589" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="590">
@@ -10474,7 +10474,7 @@
         <v>15</v>
       </c>
       <c r="E590" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="591">
@@ -10491,7 +10491,7 @@
         <v>18</v>
       </c>
       <c r="E591" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="592">
@@ -10508,7 +10508,7 @@
         <v>6</v>
       </c>
       <c r="E592" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="593">
@@ -10525,7 +10525,7 @@
         <v>8</v>
       </c>
       <c r="E593" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="594">
@@ -10542,7 +10542,7 @@
         <v>7</v>
       </c>
       <c r="E594" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="595">
@@ -10559,7 +10559,7 @@
         <v>7</v>
       </c>
       <c r="E595" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="596">
@@ -10576,7 +10576,7 @@
         <v>14</v>
       </c>
       <c r="E596" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="597">
@@ -10593,7 +10593,7 @@
         <v>12</v>
       </c>
       <c r="E597" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="598">
@@ -10610,7 +10610,7 @@
         <v>17</v>
       </c>
       <c r="E598" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="599">
@@ -10627,7 +10627,7 @@
         <v>17</v>
       </c>
       <c r="E599" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="600">
@@ -10644,7 +10644,7 @@
         <v>15</v>
       </c>
       <c r="E600" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="601">
@@ -10661,7 +10661,7 @@
         <v>8</v>
       </c>
       <c r="E601" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="602">
@@ -10678,7 +10678,7 @@
         <v>10</v>
       </c>
       <c r="E602" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="603">
@@ -10695,7 +10695,7 @@
         <v>10</v>
       </c>
       <c r="E603" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="604">
@@ -10712,7 +10712,7 @@
         <v>16</v>
       </c>
       <c r="E604" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="605">
@@ -10729,7 +10729,7 @@
         <v>17</v>
       </c>
       <c r="E605" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="606">
@@ -10746,7 +10746,7 @@
         <v>12</v>
       </c>
       <c r="E606" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="607">
@@ -10763,7 +10763,7 @@
         <v>12</v>
       </c>
       <c r="E607" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="608">
@@ -10780,7 +10780,7 @@
         <v>8</v>
       </c>
       <c r="E608" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="609">
@@ -10797,7 +10797,7 @@
         <v>13</v>
       </c>
       <c r="E609" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="610">
@@ -10814,7 +10814,7 @@
         <v>7</v>
       </c>
       <c r="E610" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="611">
@@ -10831,7 +10831,7 @@
         <v>18</v>
       </c>
       <c r="E611" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="612">
@@ -10848,7 +10848,7 @@
         <v>12</v>
       </c>
       <c r="E612" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="613">
@@ -10865,7 +10865,7 @@
         <v>11</v>
       </c>
       <c r="E613" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="614">
@@ -10882,7 +10882,7 @@
         <v>12</v>
       </c>
       <c r="E614" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="615">
@@ -10899,7 +10899,7 @@
         <v>11</v>
       </c>
       <c r="E615" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="616">
@@ -10916,7 +10916,7 @@
         <v>8</v>
       </c>
       <c r="E616" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="617">
@@ -10933,7 +10933,7 @@
         <v>8</v>
       </c>
       <c r="E617" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="618">
@@ -10950,7 +10950,7 @@
         <v>10</v>
       </c>
       <c r="E618" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="619">
@@ -10967,7 +10967,7 @@
         <v>10</v>
       </c>
       <c r="E619" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="620">
@@ -10984,7 +10984,7 @@
         <v>13</v>
       </c>
       <c r="E620" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="621">
@@ -11001,7 +11001,7 @@
         <v>15</v>
       </c>
       <c r="E621" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="622">
@@ -11018,7 +11018,7 @@
         <v>12</v>
       </c>
       <c r="E622" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="623">
@@ -11035,7 +11035,7 @@
         <v>9</v>
       </c>
       <c r="E623" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="624">
@@ -11052,7 +11052,7 @@
         <v>12</v>
       </c>
       <c r="E624" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="625">
@@ -11069,7 +11069,7 @@
         <v>11</v>
       </c>
       <c r="E625" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="626">
@@ -11086,7 +11086,7 @@
         <v>14</v>
       </c>
       <c r="E626" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="627">
@@ -11103,7 +11103,7 @@
         <v>17</v>
       </c>
       <c r="E627" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="628">
@@ -11120,7 +11120,7 @@
         <v>11</v>
       </c>
       <c r="E628" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="629">
@@ -11137,7 +11137,7 @@
         <v>11</v>
       </c>
       <c r="E629" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="630">
@@ -11154,7 +11154,7 @@
         <v>16</v>
       </c>
       <c r="E630" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="631">
@@ -11171,7 +11171,7 @@
         <v>14</v>
       </c>
       <c r="E631" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="632">
@@ -11188,7 +11188,7 @@
         <v>10</v>
       </c>
       <c r="E632" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="633">
@@ -11205,7 +11205,7 @@
         <v>9</v>
       </c>
       <c r="E633" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="634">
@@ -11222,7 +11222,7 @@
         <v>10</v>
       </c>
       <c r="E634" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="635">
@@ -11239,7 +11239,7 @@
         <v>11</v>
       </c>
       <c r="E635" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="636">
@@ -11256,7 +11256,7 @@
         <v>10</v>
       </c>
       <c r="E636" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="637">
@@ -11273,7 +11273,7 @@
         <v>6</v>
       </c>
       <c r="E637" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="638">
@@ -11290,7 +11290,7 @@
         <v>5</v>
       </c>
       <c r="E638" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="639">
@@ -11307,7 +11307,7 @@
         <v>6</v>
       </c>
       <c r="E639" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="640">
@@ -11324,7 +11324,7 @@
         <v>9</v>
       </c>
       <c r="E640" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="641">
@@ -11341,7 +11341,7 @@
         <v>11</v>
       </c>
       <c r="E641" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="642">
@@ -11358,7 +11358,7 @@
         <v>7</v>
       </c>
       <c r="E642" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="643">
@@ -11375,7 +11375,7 @@
         <v>20</v>
       </c>
       <c r="E643" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="644">
@@ -11392,7 +11392,7 @@
         <v>9</v>
       </c>
       <c r="E644" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="645">
@@ -11409,7 +11409,7 @@
         <v>12</v>
       </c>
       <c r="E645" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="646">
@@ -11426,7 +11426,7 @@
         <v>7</v>
       </c>
       <c r="E646" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="647">
@@ -11443,7 +11443,7 @@
         <v>10</v>
       </c>
       <c r="E647" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="648">
@@ -11460,7 +11460,7 @@
         <v>9</v>
       </c>
       <c r="E648" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="649">
@@ -11477,7 +11477,7 @@
         <v>13</v>
       </c>
       <c r="E649" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="650">
@@ -11494,7 +11494,7 @@
         <v>7</v>
       </c>
       <c r="E650" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="651">
@@ -11511,7 +11511,7 @@
         <v>12</v>
       </c>
       <c r="E651" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="652">
@@ -11528,7 +11528,7 @@
         <v>8</v>
       </c>
       <c r="E652" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="653">
@@ -11545,7 +11545,7 @@
         <v>7</v>
       </c>
       <c r="E653" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="654">
@@ -11562,7 +11562,7 @@
         <v>13</v>
       </c>
       <c r="E654" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="655">
@@ -11579,7 +11579,7 @@
         <v>10</v>
       </c>
       <c r="E655" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="656">
@@ -11596,7 +11596,7 @@
         <v>16</v>
       </c>
       <c r="E656" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="657">
@@ -11613,7 +11613,7 @@
         <v>10</v>
       </c>
       <c r="E657" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="658">
@@ -11630,7 +11630,7 @@
         <v>10</v>
       </c>
       <c r="E658" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="659">
@@ -11647,7 +11647,7 @@
         <v>9</v>
       </c>
       <c r="E659" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="660">
@@ -11664,7 +11664,7 @@
         <v>13</v>
       </c>
       <c r="E660" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="661">
@@ -11681,7 +11681,7 @@
         <v>12</v>
       </c>
       <c r="E661" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="662">
@@ -11698,7 +11698,7 @@
         <v>8</v>
       </c>
       <c r="E662" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="663">
@@ -11715,7 +11715,7 @@
         <v>8</v>
       </c>
       <c r="E663" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="664">
@@ -11732,7 +11732,7 @@
         <v>11</v>
       </c>
       <c r="E664" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="665">
@@ -11749,7 +11749,7 @@
         <v>12</v>
       </c>
       <c r="E665" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="666">
@@ -11766,7 +11766,7 @@
         <v>12</v>
       </c>
       <c r="E666" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="667">
@@ -11783,7 +11783,7 @@
         <v>13</v>
       </c>
       <c r="E667" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="668">
@@ -11800,7 +11800,7 @@
         <v>15</v>
       </c>
       <c r="E668" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="669">
@@ -11817,7 +11817,7 @@
         <v>13</v>
       </c>
       <c r="E669" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="670">
@@ -11834,7 +11834,7 @@
         <v>11</v>
       </c>
       <c r="E670" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="671">
@@ -11851,7 +11851,7 @@
         <v>10</v>
       </c>
       <c r="E671" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="672">
@@ -11868,7 +11868,7 @@
         <v>12</v>
       </c>
       <c r="E672" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="673">
@@ -11885,7 +11885,7 @@
         <v>11</v>
       </c>
       <c r="E673" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="674">
@@ -11902,7 +11902,7 @@
         <v>12</v>
       </c>
       <c r="E674" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="675">
@@ -11919,7 +11919,7 @@
         <v>14</v>
       </c>
       <c r="E675" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="676">
@@ -11936,7 +11936,7 @@
         <v>12</v>
       </c>
       <c r="E676" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="677">
@@ -11953,7 +11953,7 @@
         <v>12</v>
       </c>
       <c r="E677" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="678">
@@ -11970,7 +11970,7 @@
         <v>14</v>
       </c>
       <c r="E678" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="679">
@@ -11987,7 +11987,7 @@
         <v>11</v>
       </c>
       <c r="E679" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="680">
@@ -12004,7 +12004,7 @@
         <v>13</v>
       </c>
       <c r="E680" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="681">
@@ -12021,7 +12021,7 @@
         <v>13</v>
       </c>
       <c r="E681" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="682">
@@ -12038,7 +12038,7 @@
         <v>14</v>
       </c>
       <c r="E682" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="683">
@@ -12055,7 +12055,7 @@
         <v>13</v>
       </c>
       <c r="E683" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="684">
@@ -12072,7 +12072,7 @@
         <v>12</v>
       </c>
       <c r="E684" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="685">
@@ -12089,7 +12089,7 @@
         <v>14</v>
       </c>
       <c r="E685" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="686">
@@ -12106,7 +12106,7 @@
         <v>7</v>
       </c>
       <c r="E686" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="687">
@@ -12123,7 +12123,7 @@
         <v>10</v>
       </c>
       <c r="E687" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="688">
@@ -12140,7 +12140,7 @@
         <v>14</v>
       </c>
       <c r="E688" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="689">
@@ -12157,7 +12157,7 @@
         <v>12</v>
       </c>
       <c r="E689" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="690">
@@ -12174,7 +12174,7 @@
         <v>15</v>
       </c>
       <c r="E690" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="691">
@@ -12191,7 +12191,7 @@
         <v>12</v>
       </c>
       <c r="E691" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="692">
@@ -12208,7 +12208,7 @@
         <v>12</v>
       </c>
       <c r="E692" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="693">
@@ -12225,7 +12225,7 @@
         <v>9</v>
       </c>
       <c r="E693" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="694">
@@ -12242,7 +12242,7 @@
         <v>10</v>
       </c>
       <c r="E694" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="695">
@@ -12259,7 +12259,7 @@
         <v>9</v>
       </c>
       <c r="E695" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="696">
@@ -12276,7 +12276,7 @@
         <v>9</v>
       </c>
       <c r="E696" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="697">
@@ -12293,7 +12293,7 @@
         <v>9</v>
       </c>
       <c r="E697" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="698">
@@ -12310,7 +12310,7 @@
         <v>8</v>
       </c>
       <c r="E698" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="699">
@@ -12327,7 +12327,7 @@
         <v>11</v>
       </c>
       <c r="E699" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="700">
@@ -12344,7 +12344,7 @@
         <v>12</v>
       </c>
       <c r="E700" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="701">
@@ -12361,7 +12361,7 @@
         <v>12</v>
       </c>
       <c r="E701" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="702">
@@ -12378,7 +12378,7 @@
         <v>12</v>
       </c>
       <c r="E702" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="703">
@@ -12395,7 +12395,7 @@
         <v>15</v>
       </c>
       <c r="E703" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="704">
@@ -12412,7 +12412,7 @@
         <v>8</v>
       </c>
       <c r="E704" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="705">
@@ -12429,7 +12429,7 @@
         <v>11</v>
       </c>
       <c r="E705" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="706">
@@ -12446,7 +12446,7 @@
         <v>7</v>
       </c>
       <c r="E706" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="707">
@@ -12463,7 +12463,7 @@
         <v>13</v>
       </c>
       <c r="E707" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="708">
@@ -12480,7 +12480,7 @@
         <v>12</v>
       </c>
       <c r="E708" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="709">
@@ -12497,7 +12497,7 @@
         <v>15</v>
       </c>
       <c r="E709" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="710">
@@ -12514,7 +12514,7 @@
         <v>8</v>
       </c>
       <c r="E710" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="711">
@@ -12531,7 +12531,7 @@
         <v>10</v>
       </c>
       <c r="E711" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="712">
@@ -12548,7 +12548,7 @@
         <v>9</v>
       </c>
       <c r="E712" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="713">
@@ -12565,7 +12565,7 @@
         <v>10</v>
       </c>
       <c r="E713" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="714">
@@ -12582,7 +12582,7 @@
         <v>8</v>
       </c>
       <c r="E714" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="715">
@@ -12599,7 +12599,7 @@
         <v>13</v>
       </c>
       <c r="E715" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="716">
@@ -12616,7 +12616,7 @@
         <v>9</v>
       </c>
       <c r="E716" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="717">
@@ -12633,7 +12633,7 @@
         <v>12</v>
       </c>
       <c r="E717" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="718">
@@ -12650,7 +12650,7 @@
         <v>12</v>
       </c>
       <c r="E718" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="719">
@@ -12667,7 +12667,7 @@
         <v>13</v>
       </c>
       <c r="E719" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="720">
@@ -12684,7 +12684,7 @@
         <v>11</v>
       </c>
       <c r="E720" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="721">
@@ -12701,7 +12701,7 @@
         <v>16</v>
       </c>
       <c r="E721" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="722">
@@ -12718,7 +12718,7 @@
         <v>8</v>
       </c>
       <c r="E722" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="723">
@@ -12735,7 +12735,7 @@
         <v>8</v>
       </c>
       <c r="E723" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="724">
@@ -12752,7 +12752,7 @@
         <v>7</v>
       </c>
       <c r="E724" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="725">
@@ -12769,7 +12769,7 @@
         <v>7</v>
       </c>
       <c r="E725" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="726">
@@ -12786,7 +12786,7 @@
         <v>9</v>
       </c>
       <c r="E726" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="727">
@@ -12803,7 +12803,7 @@
         <v>11</v>
       </c>
       <c r="E727" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="728">
@@ -12820,7 +12820,7 @@
         <v>11</v>
       </c>
       <c r="E728" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="729">
@@ -12837,7 +12837,7 @@
         <v>10</v>
       </c>
       <c r="E729" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="730">
@@ -12854,7 +12854,7 @@
         <v>15</v>
       </c>
       <c r="E730" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="731">
@@ -12871,7 +12871,7 @@
         <v>13</v>
       </c>
       <c r="E731" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="732">
@@ -12888,7 +12888,7 @@
         <v>11</v>
       </c>
       <c r="E732" s="2" t="n">
-        <v>45796.78265716763</v>
+        <v>45798.87405896791</v>
       </c>
     </row>
     <row r="733">
@@ -12905,7 +12905,7 @@
         <v>7</v>
       </c>
       <c r="E733" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="734">
@@ -12922,7 +12922,7 @@
         <v>7</v>
       </c>
       <c r="E734" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="735">
@@ -12939,7 +12939,7 @@
         <v>7</v>
       </c>
       <c r="E735" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="736">
@@ -12956,7 +12956,7 @@
         <v>6</v>
       </c>
       <c r="E736" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="737">
@@ -12973,7 +12973,7 @@
         <v>7</v>
       </c>
       <c r="E737" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="738">
@@ -12990,7 +12990,7 @@
         <v>7</v>
       </c>
       <c r="E738" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="739">
@@ -13007,7 +13007,7 @@
         <v>6</v>
       </c>
       <c r="E739" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="740">
@@ -13024,7 +13024,7 @@
         <v>6</v>
       </c>
       <c r="E740" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="741">
@@ -13041,7 +13041,7 @@
         <v>6</v>
       </c>
       <c r="E741" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="742">
@@ -13058,7 +13058,7 @@
         <v>6</v>
       </c>
       <c r="E742" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="743">
@@ -13075,7 +13075,7 @@
         <v>6</v>
       </c>
       <c r="E743" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="744">
@@ -13092,7 +13092,7 @@
         <v>6</v>
       </c>
       <c r="E744" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="745">
@@ -13109,7 +13109,7 @@
         <v>6</v>
       </c>
       <c r="E745" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="746">
@@ -13126,7 +13126,7 @@
         <v>6</v>
       </c>
       <c r="E746" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="747">
@@ -13143,7 +13143,7 @@
         <v>6</v>
       </c>
       <c r="E747" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="748">
@@ -13160,7 +13160,7 @@
         <v>7</v>
       </c>
       <c r="E748" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="749">
@@ -13177,7 +13177,7 @@
         <v>6</v>
       </c>
       <c r="E749" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="750">
@@ -13194,7 +13194,7 @@
         <v>6</v>
       </c>
       <c r="E750" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="751">
@@ -13211,7 +13211,7 @@
         <v>6</v>
       </c>
       <c r="E751" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="752">
@@ -13228,7 +13228,7 @@
         <v>6</v>
       </c>
       <c r="E752" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="753">
@@ -13245,7 +13245,7 @@
         <v>6</v>
       </c>
       <c r="E753" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="754">
@@ -13262,7 +13262,7 @@
         <v>6</v>
       </c>
       <c r="E754" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="755">
@@ -13279,7 +13279,7 @@
         <v>6</v>
       </c>
       <c r="E755" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="756">
@@ -13296,7 +13296,7 @@
         <v>6</v>
       </c>
       <c r="E756" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="757">
@@ -13313,7 +13313,7 @@
         <v>6</v>
       </c>
       <c r="E757" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="758">
@@ -13330,7 +13330,7 @@
         <v>6</v>
       </c>
       <c r="E758" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="759">
@@ -13347,7 +13347,7 @@
         <v>7</v>
       </c>
       <c r="E759" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="760">
@@ -13364,7 +13364,7 @@
         <v>6</v>
       </c>
       <c r="E760" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="761">
@@ -13381,7 +13381,7 @@
         <v>6</v>
       </c>
       <c r="E761" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="762">
@@ -13398,7 +13398,7 @@
         <v>7</v>
       </c>
       <c r="E762" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="763">
@@ -13415,7 +13415,7 @@
         <v>7</v>
       </c>
       <c r="E763" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="764">
@@ -13432,7 +13432,7 @@
         <v>6</v>
       </c>
       <c r="E764" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="765">
@@ -13449,7 +13449,7 @@
         <v>7</v>
       </c>
       <c r="E765" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="766">
@@ -13466,7 +13466,7 @@
         <v>7</v>
       </c>
       <c r="E766" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="767">
@@ -13483,7 +13483,7 @@
         <v>6</v>
       </c>
       <c r="E767" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="768">
@@ -13500,7 +13500,7 @@
         <v>7</v>
       </c>
       <c r="E768" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="769">
@@ -13517,7 +13517,7 @@
         <v>7</v>
       </c>
       <c r="E769" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="770">
@@ -13534,7 +13534,7 @@
         <v>6</v>
       </c>
       <c r="E770" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="771">
@@ -13551,7 +13551,7 @@
         <v>6</v>
       </c>
       <c r="E771" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="772">
@@ -13568,7 +13568,7 @@
         <v>7</v>
       </c>
       <c r="E772" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="773">
@@ -13585,7 +13585,7 @@
         <v>7</v>
       </c>
       <c r="E773" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="774">
@@ -13602,7 +13602,7 @@
         <v>6</v>
       </c>
       <c r="E774" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="775">
@@ -13619,7 +13619,7 @@
         <v>6</v>
       </c>
       <c r="E775" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="776">
@@ -13636,7 +13636,7 @@
         <v>6</v>
       </c>
       <c r="E776" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="777">
@@ -13653,7 +13653,7 @@
         <v>6</v>
       </c>
       <c r="E777" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="778">
@@ -13670,7 +13670,7 @@
         <v>6</v>
       </c>
       <c r="E778" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="779">
@@ -13687,7 +13687,7 @@
         <v>7</v>
       </c>
       <c r="E779" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="780">
@@ -13704,7 +13704,7 @@
         <v>6</v>
       </c>
       <c r="E780" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="781">
@@ -13721,7 +13721,7 @@
         <v>6</v>
       </c>
       <c r="E781" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="782">
@@ -13738,7 +13738,7 @@
         <v>6</v>
       </c>
       <c r="E782" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="783">
@@ -13755,7 +13755,7 @@
         <v>6</v>
       </c>
       <c r="E783" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="784">
@@ -13772,7 +13772,7 @@
         <v>6</v>
       </c>
       <c r="E784" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="785">
@@ -13789,7 +13789,7 @@
         <v>6</v>
       </c>
       <c r="E785" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="786">
@@ -13806,7 +13806,7 @@
         <v>6</v>
       </c>
       <c r="E786" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="787">
@@ -13823,7 +13823,7 @@
         <v>6</v>
       </c>
       <c r="E787" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="788">
@@ -13840,7 +13840,7 @@
         <v>6</v>
       </c>
       <c r="E788" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="789">
@@ -13857,7 +13857,7 @@
         <v>6</v>
       </c>
       <c r="E789" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="790">
@@ -13874,7 +13874,7 @@
         <v>7</v>
       </c>
       <c r="E790" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="791">
@@ -13891,7 +13891,7 @@
         <v>6</v>
       </c>
       <c r="E791" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="792">
@@ -13908,7 +13908,7 @@
         <v>6</v>
       </c>
       <c r="E792" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="793">
@@ -13925,7 +13925,7 @@
         <v>7</v>
       </c>
       <c r="E793" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="794">
@@ -13942,7 +13942,7 @@
         <v>7</v>
       </c>
       <c r="E794" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="795">
@@ -13959,7 +13959,7 @@
         <v>6</v>
       </c>
       <c r="E795" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="796">
@@ -13976,7 +13976,7 @@
         <v>6</v>
       </c>
       <c r="E796" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="797">
@@ -13993,7 +13993,7 @@
         <v>6</v>
       </c>
       <c r="E797" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="798">
@@ -14010,7 +14010,7 @@
         <v>6</v>
       </c>
       <c r="E798" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="799">
@@ -14027,7 +14027,7 @@
         <v>6</v>
       </c>
       <c r="E799" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="800">
@@ -14044,7 +14044,7 @@
         <v>7</v>
       </c>
       <c r="E800" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="801">
@@ -14061,7 +14061,7 @@
         <v>7</v>
       </c>
       <c r="E801" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="802">
@@ -14078,7 +14078,7 @@
         <v>6</v>
       </c>
       <c r="E802" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="803">
@@ -14095,7 +14095,7 @@
         <v>6</v>
       </c>
       <c r="E803" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="804">
@@ -14112,7 +14112,7 @@
         <v>6</v>
       </c>
       <c r="E804" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="805">
@@ -14129,7 +14129,7 @@
         <v>6</v>
       </c>
       <c r="E805" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="806">
@@ -14146,7 +14146,7 @@
         <v>6</v>
       </c>
       <c r="E806" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="807">
@@ -14163,7 +14163,7 @@
         <v>7</v>
       </c>
       <c r="E807" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="808">
@@ -14180,7 +14180,7 @@
         <v>6</v>
       </c>
       <c r="E808" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="809">
@@ -14197,7 +14197,7 @@
         <v>6</v>
       </c>
       <c r="E809" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="810">
@@ -14214,7 +14214,7 @@
         <v>6</v>
       </c>
       <c r="E810" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="811">
@@ -14231,7 +14231,7 @@
         <v>6</v>
       </c>
       <c r="E811" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="812">
@@ -14248,7 +14248,7 @@
         <v>6</v>
       </c>
       <c r="E812" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="813">
@@ -14265,7 +14265,7 @@
         <v>6</v>
       </c>
       <c r="E813" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="814">
@@ -14282,7 +14282,7 @@
         <v>6</v>
       </c>
       <c r="E814" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="815">
@@ -14299,7 +14299,7 @@
         <v>6</v>
       </c>
       <c r="E815" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="816">
@@ -14316,7 +14316,7 @@
         <v>6</v>
       </c>
       <c r="E816" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="817">
@@ -14333,7 +14333,7 @@
         <v>6</v>
       </c>
       <c r="E817" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="818">
@@ -14350,7 +14350,7 @@
         <v>7</v>
       </c>
       <c r="E818" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="819">
@@ -14367,7 +14367,7 @@
         <v>6</v>
       </c>
       <c r="E819" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="820">
@@ -14384,7 +14384,7 @@
         <v>6</v>
       </c>
       <c r="E820" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="821">
@@ -14401,7 +14401,7 @@
         <v>7</v>
       </c>
       <c r="E821" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="822">
@@ -14418,7 +14418,7 @@
         <v>7</v>
       </c>
       <c r="E822" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="823">
@@ -14435,7 +14435,7 @@
         <v>6</v>
       </c>
       <c r="E823" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="824">
@@ -14452,7 +14452,7 @@
         <v>6</v>
       </c>
       <c r="E824" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="825">
@@ -14469,7 +14469,7 @@
         <v>7</v>
       </c>
       <c r="E825" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="826">
@@ -14486,7 +14486,7 @@
         <v>6</v>
       </c>
       <c r="E826" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="827">
@@ -14503,7 +14503,7 @@
         <v>6</v>
       </c>
       <c r="E827" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="828">
@@ -14520,7 +14520,7 @@
         <v>6</v>
       </c>
       <c r="E828" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="829">
@@ -14537,7 +14537,7 @@
         <v>7</v>
       </c>
       <c r="E829" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="830">
@@ -14554,7 +14554,7 @@
         <v>6</v>
       </c>
       <c r="E830" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="831">
@@ -14571,7 +14571,7 @@
         <v>6</v>
       </c>
       <c r="E831" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="832">
@@ -14588,7 +14588,7 @@
         <v>6</v>
       </c>
       <c r="E832" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="833">
@@ -14605,7 +14605,7 @@
         <v>6</v>
       </c>
       <c r="E833" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="834">
@@ -14622,7 +14622,7 @@
         <v>6</v>
       </c>
       <c r="E834" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="835">
@@ -14639,7 +14639,7 @@
         <v>6</v>
       </c>
       <c r="E835" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="836">
@@ -14656,7 +14656,7 @@
         <v>6</v>
       </c>
       <c r="E836" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="837">
@@ -14673,7 +14673,7 @@
         <v>6</v>
       </c>
       <c r="E837" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="838">
@@ -14690,7 +14690,7 @@
         <v>6</v>
       </c>
       <c r="E838" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="839">
@@ -14707,7 +14707,7 @@
         <v>6</v>
       </c>
       <c r="E839" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="840">
@@ -14724,7 +14724,7 @@
         <v>6</v>
       </c>
       <c r="E840" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="841">
@@ -14741,7 +14741,7 @@
         <v>6</v>
       </c>
       <c r="E841" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="842">
@@ -14758,7 +14758,7 @@
         <v>6</v>
       </c>
       <c r="E842" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="843">
@@ -14775,7 +14775,7 @@
         <v>6</v>
       </c>
       <c r="E843" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="844">
@@ -14792,7 +14792,7 @@
         <v>6</v>
       </c>
       <c r="E844" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="845">
@@ -14809,7 +14809,7 @@
         <v>6</v>
       </c>
       <c r="E845" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="846">
@@ -14826,7 +14826,7 @@
         <v>6</v>
       </c>
       <c r="E846" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="847">
@@ -14843,7 +14843,7 @@
         <v>6</v>
       </c>
       <c r="E847" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="848">
@@ -14860,7 +14860,7 @@
         <v>6</v>
       </c>
       <c r="E848" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="849">
@@ -14877,7 +14877,7 @@
         <v>6</v>
       </c>
       <c r="E849" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="850">
@@ -14894,7 +14894,7 @@
         <v>6</v>
       </c>
       <c r="E850" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="851">
@@ -14911,7 +14911,7 @@
         <v>6</v>
       </c>
       <c r="E851" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="852">
@@ -14928,7 +14928,7 @@
         <v>7</v>
       </c>
       <c r="E852" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="853">
@@ -14945,7 +14945,7 @@
         <v>6</v>
       </c>
       <c r="E853" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="854">
@@ -14962,7 +14962,7 @@
         <v>6</v>
       </c>
       <c r="E854" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="855">
@@ -14979,7 +14979,7 @@
         <v>6</v>
       </c>
       <c r="E855" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="856">
@@ -14996,7 +14996,7 @@
         <v>7</v>
       </c>
       <c r="E856" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="857">
@@ -15013,7 +15013,7 @@
         <v>7</v>
       </c>
       <c r="E857" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="858">
@@ -15030,7 +15030,7 @@
         <v>6</v>
       </c>
       <c r="E858" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="859">
@@ -15047,7 +15047,7 @@
         <v>6</v>
       </c>
       <c r="E859" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="860">
@@ -15064,7 +15064,7 @@
         <v>6</v>
       </c>
       <c r="E860" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="861">
@@ -15081,7 +15081,7 @@
         <v>6</v>
       </c>
       <c r="E861" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="862">
@@ -15098,7 +15098,7 @@
         <v>6</v>
       </c>
       <c r="E862" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="863">
@@ -15115,7 +15115,7 @@
         <v>7</v>
       </c>
       <c r="E863" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="864">
@@ -15132,7 +15132,7 @@
         <v>7</v>
       </c>
       <c r="E864" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="865">
@@ -15149,7 +15149,7 @@
         <v>6</v>
       </c>
       <c r="E865" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="866">
@@ -15166,7 +15166,7 @@
         <v>6</v>
       </c>
       <c r="E866" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="867">
@@ -15183,7 +15183,7 @@
         <v>6</v>
       </c>
       <c r="E867" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="868">
@@ -15200,7 +15200,7 @@
         <v>7</v>
       </c>
       <c r="E868" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="869">
@@ -15217,7 +15217,7 @@
         <v>6</v>
       </c>
       <c r="E869" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="870">
@@ -15234,7 +15234,7 @@
         <v>6</v>
       </c>
       <c r="E870" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="871">
@@ -15251,7 +15251,7 @@
         <v>6</v>
       </c>
       <c r="E871" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="872">
@@ -15268,7 +15268,7 @@
         <v>6</v>
       </c>
       <c r="E872" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="873">
@@ -15285,7 +15285,7 @@
         <v>6</v>
       </c>
       <c r="E873" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="874">
@@ -15302,7 +15302,7 @@
         <v>6</v>
       </c>
       <c r="E874" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="875">
@@ -15319,7 +15319,7 @@
         <v>6</v>
       </c>
       <c r="E875" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="876">
@@ -15336,7 +15336,7 @@
         <v>6</v>
       </c>
       <c r="E876" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="877">
@@ -15353,7 +15353,7 @@
         <v>6</v>
       </c>
       <c r="E877" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="878">
@@ -15370,7 +15370,7 @@
         <v>7</v>
       </c>
       <c r="E878" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="879">
@@ -15387,7 +15387,7 @@
         <v>6</v>
       </c>
       <c r="E879" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="880">
@@ -15404,7 +15404,7 @@
         <v>6</v>
       </c>
       <c r="E880" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="881">
@@ -15421,7 +15421,7 @@
         <v>6</v>
       </c>
       <c r="E881" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="882">
@@ -15438,7 +15438,7 @@
         <v>7</v>
       </c>
       <c r="E882" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="883">
@@ -15455,7 +15455,7 @@
         <v>7</v>
       </c>
       <c r="E883" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="884">
@@ -15472,7 +15472,7 @@
         <v>7</v>
       </c>
       <c r="E884" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="885">
@@ -15489,7 +15489,7 @@
         <v>7</v>
       </c>
       <c r="E885" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="886">
@@ -15506,7 +15506,7 @@
         <v>6</v>
       </c>
       <c r="E886" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="887">
@@ -15523,7 +15523,7 @@
         <v>6</v>
       </c>
       <c r="E887" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="888">
@@ -15540,7 +15540,7 @@
         <v>7</v>
       </c>
       <c r="E888" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="889">
@@ -15557,7 +15557,7 @@
         <v>6</v>
       </c>
       <c r="E889" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="890">
@@ -15574,7 +15574,7 @@
         <v>6</v>
       </c>
       <c r="E890" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="891">
@@ -15591,7 +15591,7 @@
         <v>7</v>
       </c>
       <c r="E891" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="892">
@@ -15608,7 +15608,7 @@
         <v>7</v>
       </c>
       <c r="E892" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="893">
@@ -15625,7 +15625,7 @@
         <v>6</v>
       </c>
       <c r="E893" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="894">
@@ -15642,7 +15642,7 @@
         <v>6</v>
       </c>
       <c r="E894" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="895">
@@ -15659,7 +15659,7 @@
         <v>6</v>
       </c>
       <c r="E895" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="896">
@@ -15676,7 +15676,7 @@
         <v>6</v>
       </c>
       <c r="E896" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="897">
@@ -15693,7 +15693,7 @@
         <v>6</v>
       </c>
       <c r="E897" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="898">
@@ -15710,7 +15710,7 @@
         <v>7</v>
       </c>
       <c r="E898" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="899">
@@ -15727,7 +15727,7 @@
         <v>7</v>
       </c>
       <c r="E899" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="900">
@@ -15744,7 +15744,7 @@
         <v>6</v>
       </c>
       <c r="E900" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="901">
@@ -15761,7 +15761,7 @@
         <v>6</v>
       </c>
       <c r="E901" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="902">
@@ -15778,7 +15778,7 @@
         <v>6</v>
       </c>
       <c r="E902" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="903">
@@ -15795,7 +15795,7 @@
         <v>6</v>
       </c>
       <c r="E903" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="904">
@@ -15812,7 +15812,7 @@
         <v>6</v>
       </c>
       <c r="E904" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="905">
@@ -15829,7 +15829,7 @@
         <v>6</v>
       </c>
       <c r="E905" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="906">
@@ -15846,7 +15846,7 @@
         <v>6</v>
       </c>
       <c r="E906" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="907">
@@ -15863,7 +15863,7 @@
         <v>6</v>
       </c>
       <c r="E907" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="908">
@@ -15880,7 +15880,7 @@
         <v>6</v>
       </c>
       <c r="E908" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="909">
@@ -15897,7 +15897,7 @@
         <v>6</v>
       </c>
       <c r="E909" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="910">
@@ -15914,7 +15914,7 @@
         <v>7</v>
       </c>
       <c r="E910" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="911">
@@ -15931,7 +15931,7 @@
         <v>6</v>
       </c>
       <c r="E911" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="912">
@@ -15948,7 +15948,7 @@
         <v>6</v>
       </c>
       <c r="E912" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
     <row r="913">
@@ -15965,7 +15965,7 @@
         <v>7</v>
       </c>
       <c r="E913" s="2" t="n">
-        <v>45796.78267568323</v>
+        <v>45798.87407674758</v>
       </c>
     </row>
   </sheetData>
